--- a/results/outputs/main/v4/supplemental_tables/simulation_performance_table.xlsx
+++ b/results/outputs/main/v4/supplemental_tables/simulation_performance_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11372" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11374" uniqueCount="33">
   <si>
     <t>seed</t>
   </si>
@@ -100,7 +100,7 @@
     <t>B vs. CD8</t>
   </si>
   <si>
-    <t>estimate</t>
+    <t>correlation_coefficient</t>
   </si>
   <si>
     <t>cellassign</t>
@@ -82668,6 +82668,12 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -82681,7 +82687,13 @@
       <c r="C2" t="n">
         <v>0.2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="n">
+        <v>0.727333333333333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.727333333333333</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82695,7 +82707,13 @@
       <c r="C3" t="n">
         <v>0.0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="n">
+        <v>0.949333333333333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.949333333333333</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82709,7 +82727,13 @@
       <c r="C4" t="n">
         <v>0.4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="n">
+        <v>0.235333333333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.235333333333333</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82723,7 +82747,13 @@
       <c r="C5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="n">
+        <v>0.603333333333333</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.603333333333333</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82737,7 +82767,13 @@
       <c r="C6" t="n">
         <v>0.6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="n">
+        <v>0.254666666666667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.254666666666667</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82751,7 +82787,13 @@
       <c r="C7" t="n">
         <v>0.6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="n">
+        <v>0.0266666666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0266666666666667</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82765,7 +82807,13 @@
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="n">
+        <v>0.449333333333333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.449333333333333</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82779,7 +82827,13 @@
       <c r="C9" t="n">
         <v>0.5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82793,7 +82847,13 @@
       <c r="C10" t="n">
         <v>0.2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="n">
+        <v>0.977333333333333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.977333333333333</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82807,7 +82867,13 @@
       <c r="C11" t="n">
         <v>0.6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="n">
+        <v>0.265333333333333</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.265333333333333</v>
+      </c>
+      <c r="F11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82821,7 +82887,13 @@
       <c r="C12" t="n">
         <v>0.6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="F12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82835,7 +82907,13 @@
       <c r="C13" t="n">
         <v>0.5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="n">
+        <v>0.0566666666666667</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0566666666666667</v>
+      </c>
+      <c r="F13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82849,7 +82927,13 @@
       <c r="C14" t="n">
         <v>0.5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="F14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82863,7 +82947,13 @@
       <c r="C15" t="n">
         <v>0.3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="n">
+        <v>0.252666666666667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.252666666666667</v>
+      </c>
+      <c r="F15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82877,7 +82967,13 @@
       <c r="C16" t="n">
         <v>0.0</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="n">
+        <v>0.622666666666667</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.622666666666667</v>
+      </c>
+      <c r="F16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82891,7 +82987,13 @@
       <c r="C17" t="n">
         <v>0.0</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="n">
+        <v>0.798666666666667</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.798666666666667</v>
+      </c>
+      <c r="F17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82905,7 +83007,13 @@
       <c r="C18" t="n">
         <v>0.5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="n">
+        <v>0.170666666666667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.170666666666667</v>
+      </c>
+      <c r="F18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82919,7 +83027,13 @@
       <c r="C19" t="n">
         <v>0.1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="n">
+        <v>0.979333333333333</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.979333333333333</v>
+      </c>
+      <c r="F19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82933,7 +83047,13 @@
       <c r="C20" t="n">
         <v>0.2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82947,7 +83067,13 @@
       <c r="C21" t="n">
         <v>0.3</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="n">
+        <v>0.724666666666667</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.724666666666667</v>
+      </c>
+      <c r="F21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82961,7 +83087,13 @@
       <c r="C22" t="n">
         <v>0.4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="n">
+        <v>0.325333333333333</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.325333333333333</v>
+      </c>
+      <c r="F22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82975,7 +83107,13 @@
       <c r="C23" t="n">
         <v>0.3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -82989,7 +83127,13 @@
       <c r="C24" t="n">
         <v>0.1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="n">
+        <v>0.755333333333333</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.755333333333333</v>
+      </c>
+      <c r="F24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83003,7 +83147,13 @@
       <c r="C25" t="n">
         <v>0.5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83017,7 +83167,13 @@
       <c r="C26" t="n">
         <v>0.0</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="n">
+        <v>0.622666666666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.622666666666667</v>
+      </c>
+      <c r="F26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83031,7 +83187,13 @@
       <c r="C27" t="n">
         <v>0.1</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="n">
+        <v>0.924666666666667</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.924666666666667</v>
+      </c>
+      <c r="F27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83045,7 +83207,13 @@
       <c r="C28" t="n">
         <v>0.4</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83059,7 +83227,13 @@
       <c r="C29" t="n">
         <v>0.2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="n">
+        <v>0.720666666666667</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.720666666666667</v>
+      </c>
+      <c r="F29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83073,7 +83247,13 @@
       <c r="C30" t="n">
         <v>0.5</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="n">
+        <v>0.550666666666667</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.550666666666667</v>
+      </c>
+      <c r="F30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83087,7 +83267,13 @@
       <c r="C31" t="n">
         <v>0.2</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="n">
+        <v>0.419333333333333</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.419333333333333</v>
+      </c>
+      <c r="F31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83101,7 +83287,13 @@
       <c r="C32" t="n">
         <v>0.2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="F32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83115,7 +83307,13 @@
       <c r="C33" t="n">
         <v>0.2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="n">
+        <v>0.677333333333333</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.677333333333333</v>
+      </c>
+      <c r="F33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83129,7 +83327,13 @@
       <c r="C34" t="n">
         <v>0.5</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="n">
+        <v>0.0233333333333333</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0233333333333333</v>
+      </c>
+      <c r="F34" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83143,7 +83347,13 @@
       <c r="C35" t="n">
         <v>0.6</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="n">
+        <v>0.0786666666666667</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0786666666666667</v>
+      </c>
+      <c r="F35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83157,7 +83367,13 @@
       <c r="C36" t="n">
         <v>0.3</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="n">
+        <v>0.315333333333333</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.315333333333333</v>
+      </c>
+      <c r="F36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83171,7 +83387,13 @@
       <c r="C37" t="n">
         <v>0.5</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="n">
+        <v>0.342666666666667</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.342666666666667</v>
+      </c>
+      <c r="F37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83185,7 +83407,13 @@
       <c r="C38" t="n">
         <v>0.1</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="F38" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83199,7 +83427,13 @@
       <c r="C39" t="n">
         <v>0.1</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="n">
+        <v>0.946666666666667</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.946666666666667</v>
+      </c>
+      <c r="F39" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83213,7 +83447,13 @@
       <c r="C40" t="n">
         <v>0.1</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="n">
+        <v>0.425333333333333</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.425333333333333</v>
+      </c>
+      <c r="F40" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83227,7 +83467,13 @@
       <c r="C41" t="n">
         <v>0.5</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="n">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="F41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83241,7 +83487,13 @@
       <c r="C42" t="n">
         <v>0.4</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="n">
+        <v>0.695333333333333</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.695333333333333</v>
+      </c>
+      <c r="F42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83255,7 +83507,13 @@
       <c r="C43" t="n">
         <v>0.1</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="n">
+        <v>0.770666666666667</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.770666666666667</v>
+      </c>
+      <c r="F43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83269,7 +83527,13 @@
       <c r="C44" t="n">
         <v>0.5</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="n">
+        <v>0.337333333333333</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.337333333333333</v>
+      </c>
+      <c r="F44" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83283,7 +83547,13 @@
       <c r="C45" t="n">
         <v>0.3</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="F45" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83297,7 +83567,13 @@
       <c r="C46" t="n">
         <v>0.6</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="F46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83311,7 +83587,13 @@
       <c r="C47" t="n">
         <v>0.3</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="n">
+        <v>0.822666666666667</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.822666666666667</v>
+      </c>
+      <c r="F47" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83325,7 +83607,13 @@
       <c r="C48" t="n">
         <v>0.4</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="n">
+        <v>0.285333333333333</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.285333333333333</v>
+      </c>
+      <c r="F48" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83339,7 +83627,13 @@
       <c r="C49" t="n">
         <v>0.3</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="F49" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83353,7 +83647,13 @@
       <c r="C50" t="n">
         <v>0.4</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="F50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83367,7 +83667,13 @@
       <c r="C51" t="n">
         <v>0.4</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="F51" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83381,7 +83687,13 @@
       <c r="C52" t="n">
         <v>0.4</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="n">
+        <v>0.627333333333333</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.627333333333333</v>
+      </c>
+      <c r="F52" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83395,7 +83707,13 @@
       <c r="C53" t="n">
         <v>0.5</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="n">
+        <v>0.602666666666667</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.602666666666667</v>
+      </c>
+      <c r="F53" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83409,7 +83727,13 @@
       <c r="C54" t="n">
         <v>0.0</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="n">
+        <v>0.730666666666667</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.730666666666667</v>
+      </c>
+      <c r="F54" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83423,7 +83747,13 @@
       <c r="C55" t="n">
         <v>0.2</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="n">
+        <v>0.980666666666667</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.980666666666667</v>
+      </c>
+      <c r="F55" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83437,7 +83767,13 @@
       <c r="C56" t="n">
         <v>0.5</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="n">
+        <v>0.624666666666667</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.624666666666667</v>
+      </c>
+      <c r="F56" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83451,7 +83787,13 @@
       <c r="C57" t="n">
         <v>0.0</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="n">
+        <v>0.898666666666667</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.898666666666667</v>
+      </c>
+      <c r="F57" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83465,7 +83807,13 @@
       <c r="C58" t="n">
         <v>0.2</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="n">
+        <v>0.355333333333333</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.355333333333333</v>
+      </c>
+      <c r="F58" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83479,7 +83827,13 @@
       <c r="C59" t="n">
         <v>0.6</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="n">
+        <v>0.292666666666667</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.292666666666667</v>
+      </c>
+      <c r="F59" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83493,7 +83847,13 @@
       <c r="C60" t="n">
         <v>0.0</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="n">
+        <v>0.893333333333333</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.893333333333333</v>
+      </c>
+      <c r="F60" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83507,7 +83867,13 @@
       <c r="C61" t="n">
         <v>0.6</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83521,7 +83887,13 @@
       <c r="C62" t="n">
         <v>0.5</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="n">
+        <v>0.729333333333333</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.729333333333333</v>
+      </c>
+      <c r="F62" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83535,7 +83907,13 @@
       <c r="C63" t="n">
         <v>0.1</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="n">
+        <v>0.893333333333333</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.893333333333333</v>
+      </c>
+      <c r="F63" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83549,7 +83927,13 @@
       <c r="C64" t="n">
         <v>0.2</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="n">
+        <v>0.174666666666667</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.174666666666667</v>
+      </c>
+      <c r="F64" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83563,7 +83947,13 @@
       <c r="C65" t="n">
         <v>0.5</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="n">
+        <v>0.489333333333333</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.489333333333333</v>
+      </c>
+      <c r="F65" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83577,7 +83967,13 @@
       <c r="C66" t="n">
         <v>0.6</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" t="n">
+        <v>0.439333333333333</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.439333333333333</v>
+      </c>
+      <c r="F66" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83591,7 +83987,13 @@
       <c r="C67" t="n">
         <v>0.4</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="n">
+        <v>0.670666666666667</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.670666666666667</v>
+      </c>
+      <c r="F67" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83605,7 +84007,13 @@
       <c r="C68" t="n">
         <v>0.0</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" t="n">
+        <v>0.772666666666667</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.772666666666667</v>
+      </c>
+      <c r="F68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83619,7 +84027,13 @@
       <c r="C69" t="n">
         <v>0.0</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="F69" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83633,7 +84047,13 @@
       <c r="C70" t="n">
         <v>0.4</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="F70" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83647,7 +84067,13 @@
       <c r="C71" t="n">
         <v>0.3</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" t="n">
+        <v>0.948666666666667</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.948666666666667</v>
+      </c>
+      <c r="F71" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83661,7 +84087,13 @@
       <c r="C72" t="n">
         <v>0.6</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" t="n">
+        <v>0.154666666666667</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.154666666666667</v>
+      </c>
+      <c r="F72" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83675,7 +84107,13 @@
       <c r="C73" t="n">
         <v>0.4</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="F73" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83689,7 +84127,13 @@
       <c r="C74" t="n">
         <v>0.3</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" t="n">
+        <v>0.568666666666667</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.568666666666667</v>
+      </c>
+      <c r="F74" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83703,7 +84147,13 @@
       <c r="C75" t="n">
         <v>0.2</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F75" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83717,7 +84167,13 @@
       <c r="C76" t="n">
         <v>0.6</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="F76" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83731,7 +84187,13 @@
       <c r="C77" t="n">
         <v>0.0</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="n">
+        <v>0.825333333333333</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.825333333333333</v>
+      </c>
+      <c r="F77" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83745,7 +84207,13 @@
       <c r="C78" t="n">
         <v>0.6</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F78" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83759,7 +84227,13 @@
       <c r="C79" t="n">
         <v>0.2</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="n">
+        <v>0.703333333333333</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.703333333333333</v>
+      </c>
+      <c r="F79" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83773,7 +84247,13 @@
       <c r="C80" t="n">
         <v>0.1</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="F80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83787,7 +84267,13 @@
       <c r="C81" t="n">
         <v>0.3</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="n">
+        <v>0.946666666666667</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.946666666666667</v>
+      </c>
+      <c r="F81" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83801,7 +84287,13 @@
       <c r="C82" t="n">
         <v>0.2</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="F82" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83815,7 +84307,13 @@
       <c r="C83" t="n">
         <v>0.1</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="n">
+        <v>0.927333333333333</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.927333333333333</v>
+      </c>
+      <c r="F83" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83829,7 +84327,13 @@
       <c r="C84" t="n">
         <v>0.0</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="F84" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83843,7 +84347,13 @@
       <c r="C85" t="n">
         <v>0.1</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" t="n">
+        <v>0.764666666666667</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.764666666666667</v>
+      </c>
+      <c r="F85" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83857,7 +84367,13 @@
       <c r="C86" t="n">
         <v>0.0</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F86" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83871,7 +84387,13 @@
       <c r="C87" t="n">
         <v>0.5</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="n">
+        <v>0.221333333333333</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.221333333333333</v>
+      </c>
+      <c r="F87" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83885,7 +84407,13 @@
       <c r="C88" t="n">
         <v>0.4</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="F88" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83899,7 +84427,13 @@
       <c r="C89" t="n">
         <v>0.6</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="n">
+        <v>0.311333333333333</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.311333333333333</v>
+      </c>
+      <c r="F89" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83913,7 +84447,13 @@
       <c r="C90" t="n">
         <v>0.4</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" t="n">
+        <v>0.739333333333333</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.739333333333333</v>
+      </c>
+      <c r="F90" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83927,7 +84467,13 @@
       <c r="C91" t="n">
         <v>0.2</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" t="n">
+        <v>0.677333333333333</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.677333333333333</v>
+      </c>
+      <c r="F91" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83941,7 +84487,13 @@
       <c r="C92" t="n">
         <v>0.3</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" t="n">
+        <v>0.780666666666667</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.780666666666667</v>
+      </c>
+      <c r="F92" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83955,7 +84507,13 @@
       <c r="C93" t="n">
         <v>0.4</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" t="n">
+        <v>0.0893333333333333</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0893333333333333</v>
+      </c>
+      <c r="F93" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83969,7 +84527,13 @@
       <c r="C94" t="n">
         <v>0.1</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="F94" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83983,7 +84547,13 @@
       <c r="C95" t="n">
         <v>0.6</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" t="n">
+        <v>0.589333333333333</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.589333333333333</v>
+      </c>
+      <c r="F95" t="s">
         <v>26</v>
       </c>
     </row>
@@ -83997,7 +84567,13 @@
       <c r="C96" t="n">
         <v>0.4</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" t="n">
+        <v>0.596666666666667</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.596666666666667</v>
+      </c>
+      <c r="F96" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84011,7 +84587,13 @@
       <c r="C97" t="n">
         <v>0.3</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" t="n">
+        <v>0.703333333333333</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.703333333333333</v>
+      </c>
+      <c r="F97" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84025,7 +84607,13 @@
       <c r="C98" t="n">
         <v>0.3</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" t="n">
+        <v>0.423333333333333</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.423333333333333</v>
+      </c>
+      <c r="F98" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84039,7 +84627,13 @@
       <c r="C99" t="n">
         <v>0.3</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" t="n">
+        <v>0.432666666666667</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.432666666666667</v>
+      </c>
+      <c r="F99" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84053,7 +84647,13 @@
       <c r="C100" t="n">
         <v>0.0</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" t="n">
+        <v>0.796666666666667</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.796666666666667</v>
+      </c>
+      <c r="F100" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84067,7 +84667,13 @@
       <c r="C101" t="n">
         <v>0.2</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" t="n">
+        <v>0.749333333333333</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.749333333333333</v>
+      </c>
+      <c r="F101" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84081,7 +84687,13 @@
       <c r="C102" t="n">
         <v>0.2</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" t="n">
+        <v>0.537333333333333</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.537333333333333</v>
+      </c>
+      <c r="F102" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84095,7 +84707,13 @@
       <c r="C103" t="n">
         <v>0.3</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" t="n">
+        <v>0.698666666666667</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.698666666666667</v>
+      </c>
+      <c r="F103" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84109,7 +84727,13 @@
       <c r="C104" t="n">
         <v>0.6</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" t="n">
+        <v>0.225333333333333</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.225333333333333</v>
+      </c>
+      <c r="F104" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84123,7 +84747,13 @@
       <c r="C105" t="n">
         <v>0.0</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="n">
+        <v>0.679333333333333</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.679333333333333</v>
+      </c>
+      <c r="F105" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84137,7 +84767,13 @@
       <c r="C106" t="n">
         <v>0.1</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" t="n">
+        <v>0.599333333333333</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.599333333333333</v>
+      </c>
+      <c r="F106" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84151,7 +84787,13 @@
       <c r="C107" t="n">
         <v>0.1</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="F107" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84165,7 +84807,13 @@
       <c r="C108" t="n">
         <v>0.5</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F108" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84179,7 +84827,13 @@
       <c r="C109" t="n">
         <v>0.0</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" t="n">
+        <v>0.978666666666667</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.978666666666667</v>
+      </c>
+      <c r="F109" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84193,7 +84847,13 @@
       <c r="C110" t="n">
         <v>0.0</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" t="n">
+        <v>0.749333333333333</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.749333333333333</v>
+      </c>
+      <c r="F110" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84207,7 +84867,13 @@
       <c r="C111" t="n">
         <v>0.4</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" t="n">
+        <v>0.398666666666667</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.398666666666667</v>
+      </c>
+      <c r="F111" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84221,7 +84887,13 @@
       <c r="C112" t="n">
         <v>0.1</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F112" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84235,7 +84907,13 @@
       <c r="C113" t="n">
         <v>0.1</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" t="n">
+        <v>0.688666666666667</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.688666666666667</v>
+      </c>
+      <c r="F113" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84249,7 +84927,13 @@
       <c r="C114" t="n">
         <v>0.4</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" t="n">
+        <v>0.465333333333333</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.465333333333333</v>
+      </c>
+      <c r="F114" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84263,7 +84947,13 @@
       <c r="C115" t="n">
         <v>0.0</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" t="n">
+        <v>0.928666666666667</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.928666666666667</v>
+      </c>
+      <c r="F115" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84277,7 +84967,13 @@
       <c r="C116" t="n">
         <v>0.6</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F116" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84291,7 +84987,13 @@
       <c r="C117" t="n">
         <v>0.1</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" t="n">
+        <v>0.628666666666667</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.628666666666667</v>
+      </c>
+      <c r="F117" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84305,7 +85007,13 @@
       <c r="C118" t="n">
         <v>0.6</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F118" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84319,7 +85027,13 @@
       <c r="C119" t="n">
         <v>0.6</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="F119" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84333,7 +85047,13 @@
       <c r="C120" t="n">
         <v>0.2</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="F120" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84347,7 +85067,13 @@
       <c r="C121" t="n">
         <v>0.0</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" t="n">
+        <v>0.751333333333333</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.751333333333333</v>
+      </c>
+      <c r="F121" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84361,7 +85087,13 @@
       <c r="C122" t="n">
         <v>0.3</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" t="n">
+        <v>0.647333333333333</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.647333333333333</v>
+      </c>
+      <c r="F122" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84375,7 +85107,13 @@
       <c r="C123" t="n">
         <v>0.4</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="F123" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84389,7 +85127,13 @@
       <c r="C124" t="n">
         <v>0.3</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" t="n">
+        <v>0.635333333333333</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.635333333333333</v>
+      </c>
+      <c r="F124" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84403,7 +85147,13 @@
       <c r="C125" t="n">
         <v>0.5</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F125" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84417,7 +85167,13 @@
       <c r="C126" t="n">
         <v>0.5</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" t="n">
+        <v>0.579333333333333</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.579333333333333</v>
+      </c>
+      <c r="F126" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84431,7 +85187,13 @@
       <c r="C127" t="n">
         <v>0.3</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" t="n">
+        <v>0.338666666666667</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.338666666666667</v>
+      </c>
+      <c r="F127" t="s">
         <v>26</v>
       </c>
     </row>
@@ -84445,7 +85207,13 @@
       <c r="C128" t="n">
         <v>0.5</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F128" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84459,7 +85227,13 @@
       <c r="C129" t="n">
         <v>0.1</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F129" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84473,7 +85247,13 @@
       <c r="C130" t="n">
         <v>0.6</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F130" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84487,7 +85267,13 @@
       <c r="C131" t="n">
         <v>0.2</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F131" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84501,7 +85287,13 @@
       <c r="C132" t="n">
         <v>0.6</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" t="n">
+        <v>0.355333333333333</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.355333333333333</v>
+      </c>
+      <c r="F132" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84515,7 +85307,13 @@
       <c r="C133" t="n">
         <v>0.3</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F133" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84529,7 +85327,13 @@
       <c r="C134" t="n">
         <v>0.0</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F134" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84543,7 +85347,13 @@
       <c r="C135" t="n">
         <v>0.0</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F135" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84557,7 +85367,13 @@
       <c r="C136" t="n">
         <v>0.1</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F136" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84571,7 +85387,13 @@
       <c r="C137" t="n">
         <v>0.1</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F137" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84585,7 +85407,13 @@
       <c r="C138" t="n">
         <v>0.5</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="F138" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84599,7 +85427,13 @@
       <c r="C139" t="n">
         <v>0.1</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F139" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84613,7 +85447,13 @@
       <c r="C140" t="n">
         <v>0.2</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F140" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84627,7 +85467,13 @@
       <c r="C141" t="n">
         <v>0.6</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F141" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84641,7 +85487,13 @@
       <c r="C142" t="n">
         <v>0.1</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F142" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84655,7 +85507,13 @@
       <c r="C143" t="n">
         <v>0.5</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="F143" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84669,7 +85527,13 @@
       <c r="C144" t="n">
         <v>0.3</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F144" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84683,7 +85547,13 @@
       <c r="C145" t="n">
         <v>0.3</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="F145" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84697,7 +85567,13 @@
       <c r="C146" t="n">
         <v>0.4</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" t="n">
+        <v>0.323333333333333</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.323333333333333</v>
+      </c>
+      <c r="F146" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84711,7 +85587,13 @@
       <c r="C147" t="n">
         <v>0.4</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" t="n">
+        <v>0.326666666666667</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.326666666666667</v>
+      </c>
+      <c r="F147" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84725,7 +85607,13 @@
       <c r="C148" t="n">
         <v>0.0</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F148" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84739,7 +85627,13 @@
       <c r="C149" t="n">
         <v>0.0</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F149" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84753,7 +85647,13 @@
       <c r="C150" t="n">
         <v>0.2</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F150" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84767,7 +85667,13 @@
       <c r="C151" t="n">
         <v>0.5</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F151" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84781,7 +85687,13 @@
       <c r="C152" t="n">
         <v>0.6</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F152" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84795,7 +85707,13 @@
       <c r="C153" t="n">
         <v>0.3</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" t="n">
+        <v>0.338666666666667</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.338666666666667</v>
+      </c>
+      <c r="F153" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84809,7 +85727,13 @@
       <c r="C154" t="n">
         <v>0.0</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F154" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84823,7 +85747,13 @@
       <c r="C155" t="n">
         <v>0.3</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F155" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84837,7 +85767,13 @@
       <c r="C156" t="n">
         <v>0.2</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F156" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84851,7 +85787,13 @@
       <c r="C157" t="n">
         <v>0.5</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F157" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84865,7 +85807,13 @@
       <c r="C158" t="n">
         <v>0.3</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F158" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84879,7 +85827,13 @@
       <c r="C159" t="n">
         <v>0.3</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F159" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84893,7 +85847,13 @@
       <c r="C160" t="n">
         <v>0.3</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" t="n">
+        <v>0.997333333333333</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.997333333333333</v>
+      </c>
+      <c r="F160" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84907,7 +85867,13 @@
       <c r="C161" t="n">
         <v>0.1</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F161" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84921,7 +85887,13 @@
       <c r="C162" t="n">
         <v>0.4</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F162" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84935,7 +85907,13 @@
       <c r="C163" t="n">
         <v>0.1</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F163" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84949,7 +85927,13 @@
       <c r="C164" t="n">
         <v>0.2</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F164" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84963,7 +85947,13 @@
       <c r="C165" t="n">
         <v>0.4</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" t="n">
+        <v>0.355333333333333</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.355333333333333</v>
+      </c>
+      <c r="F165" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84977,7 +85967,13 @@
       <c r="C166" t="n">
         <v>0.6</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F166" t="s">
         <v>27</v>
       </c>
     </row>
@@ -84991,7 +85987,13 @@
       <c r="C167" t="n">
         <v>0.4</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F167" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85005,7 +86007,13 @@
       <c r="C168" t="n">
         <v>0.0</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F168" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85019,7 +86027,13 @@
       <c r="C169" t="n">
         <v>0.1</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F169" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85033,7 +86047,13 @@
       <c r="C170" t="n">
         <v>0.6</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F170" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85047,7 +86067,13 @@
       <c r="C171" t="n">
         <v>0.4</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F171" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85061,7 +86087,13 @@
       <c r="C172" t="n">
         <v>0.2</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F172" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85075,7 +86107,13 @@
       <c r="C173" t="n">
         <v>0.6</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" t="n">
+        <v>0.326666666666667</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.326666666666667</v>
+      </c>
+      <c r="F173" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85089,7 +86127,13 @@
       <c r="C174" t="n">
         <v>0.3</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F174" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85103,7 +86147,13 @@
       <c r="C175" t="n">
         <v>0.2</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" t="n">
+        <v>0.575333333333333</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.575333333333333</v>
+      </c>
+      <c r="F175" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85117,7 +86167,13 @@
       <c r="C176" t="n">
         <v>0.0</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F176" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85131,7 +86187,13 @@
       <c r="C177" t="n">
         <v>0.2</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F177" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85145,7 +86207,13 @@
       <c r="C178" t="n">
         <v>0.5</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" t="n">
+        <v>0.326666666666667</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.326666666666667</v>
+      </c>
+      <c r="F178" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85159,7 +86227,13 @@
       <c r="C179" t="n">
         <v>0.5</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" t="n">
+        <v>0.329333333333333</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.329333333333333</v>
+      </c>
+      <c r="F179" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85173,7 +86247,13 @@
       <c r="C180" t="n">
         <v>0.3</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F180" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85187,7 +86267,13 @@
       <c r="C181" t="n">
         <v>0.1</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F181" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85201,7 +86287,13 @@
       <c r="C182" t="n">
         <v>0.6</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="F182" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85215,7 +86307,13 @@
       <c r="C183" t="n">
         <v>0.3</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F183" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85229,7 +86327,13 @@
       <c r="C184" t="n">
         <v>0.4</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" t="n">
+        <v>0.347333333333333</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.347333333333333</v>
+      </c>
+      <c r="F184" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85243,7 +86347,13 @@
       <c r="C185" t="n">
         <v>0.6</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F185" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85257,7 +86367,13 @@
       <c r="C186" t="n">
         <v>0.4</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F186" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85271,7 +86387,13 @@
       <c r="C187" t="n">
         <v>0.6</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" t="n">
+        <v>0.334666666666667</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.334666666666667</v>
+      </c>
+      <c r="F187" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85285,7 +86407,13 @@
       <c r="C188" t="n">
         <v>0.3</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" t="n">
+        <v>0.326666666666667</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.326666666666667</v>
+      </c>
+      <c r="F188" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85299,7 +86427,13 @@
       <c r="C189" t="n">
         <v>0.5</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="F189" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85313,7 +86447,13 @@
       <c r="C190" t="n">
         <v>0.3</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F190" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85327,7 +86467,13 @@
       <c r="C191" t="n">
         <v>0.0</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F191" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85341,7 +86487,13 @@
       <c r="C192" t="n">
         <v>0.5</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F192" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85355,7 +86507,13 @@
       <c r="C193" t="n">
         <v>0.3</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F193" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85369,7 +86527,13 @@
       <c r="C194" t="n">
         <v>0.0</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F194" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85383,7 +86547,13 @@
       <c r="C195" t="n">
         <v>0.4</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F195" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85397,7 +86567,13 @@
       <c r="C196" t="n">
         <v>0.0</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F196" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85411,7 +86587,13 @@
       <c r="C197" t="n">
         <v>0.5</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F197" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85425,7 +86607,13 @@
       <c r="C198" t="n">
         <v>0.5</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="F198" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85439,7 +86627,13 @@
       <c r="C199" t="n">
         <v>0.4</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="F199" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85453,7 +86647,13 @@
       <c r="C200" t="n">
         <v>0.1</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F200" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85467,7 +86667,13 @@
       <c r="C201" t="n">
         <v>0.2</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F201" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85481,7 +86687,13 @@
       <c r="C202" t="n">
         <v>0.3</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" t="n">
+        <v>0.342666666666667</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.342666666666667</v>
+      </c>
+      <c r="F202" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85495,7 +86707,13 @@
       <c r="C203" t="n">
         <v>0.0</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F203" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85509,7 +86727,13 @@
       <c r="C204" t="n">
         <v>0.0</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F204" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85523,7 +86747,13 @@
       <c r="C205" t="n">
         <v>0.0</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F205" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85537,7 +86767,13 @@
       <c r="C206" t="n">
         <v>0.4</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F206" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85551,7 +86787,13 @@
       <c r="C207" t="n">
         <v>0.4</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="F207" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85565,7 +86807,13 @@
       <c r="C208" t="n">
         <v>0.6</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="F208" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85579,7 +86827,13 @@
       <c r="C209" t="n">
         <v>0.2</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F209" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85593,7 +86847,13 @@
       <c r="C210" t="n">
         <v>0.1</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F210" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85607,7 +86867,13 @@
       <c r="C211" t="n">
         <v>0.5</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F211" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85621,7 +86887,13 @@
       <c r="C212" t="n">
         <v>0.4</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="F212" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85635,7 +86907,13 @@
       <c r="C213" t="n">
         <v>0.3</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F213" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85649,7 +86927,13 @@
       <c r="C214" t="n">
         <v>0.2</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="F214" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85663,7 +86947,13 @@
       <c r="C215" t="n">
         <v>0.6</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F215" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85677,7 +86967,13 @@
       <c r="C216" t="n">
         <v>0.6</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F216" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85691,7 +86987,13 @@
       <c r="C217" t="n">
         <v>0.2</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F217" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85705,7 +87007,13 @@
       <c r="C218" t="n">
         <v>0.5</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" t="n">
+        <v>6.66666666666667E-4</v>
+      </c>
+      <c r="E218" t="n">
+        <v>6.66666666666667E-4</v>
+      </c>
+      <c r="F218" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85719,7 +87027,13 @@
       <c r="C219" t="n">
         <v>0.1</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F219" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85733,7 +87047,13 @@
       <c r="C220" t="n">
         <v>0.0</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F220" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85747,7 +87067,13 @@
       <c r="C221" t="n">
         <v>0.3</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F221" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85761,7 +87087,13 @@
       <c r="C222" t="n">
         <v>0.5</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F222" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85775,7 +87107,13 @@
       <c r="C223" t="n">
         <v>0.5</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" t="n">
+        <v>0.346666666666667</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.346666666666667</v>
+      </c>
+      <c r="F223" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85789,7 +87127,13 @@
       <c r="C224" t="n">
         <v>0.5</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F224" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85803,7 +87147,13 @@
       <c r="C225" t="n">
         <v>0.1</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F225" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85817,7 +87167,13 @@
       <c r="C226" t="n">
         <v>0.5</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F226" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85831,7 +87187,13 @@
       <c r="C227" t="n">
         <v>0.1</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F227" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85845,7 +87207,13 @@
       <c r="C228" t="n">
         <v>0.2</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F228" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85859,7 +87227,13 @@
       <c r="C229" t="n">
         <v>0.2</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F229" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85873,7 +87247,13 @@
       <c r="C230" t="n">
         <v>0.2</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F230" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85887,7 +87267,13 @@
       <c r="C231" t="n">
         <v>0.6</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F231" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85901,7 +87287,13 @@
       <c r="C232" t="n">
         <v>0.0</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F232" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85915,7 +87307,13 @@
       <c r="C233" t="n">
         <v>0.1</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F233" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85929,7 +87327,13 @@
       <c r="C234" t="n">
         <v>0.0</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F234" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85943,7 +87347,13 @@
       <c r="C235" t="n">
         <v>0.1</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F235" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85957,7 +87367,13 @@
       <c r="C236" t="n">
         <v>0.1</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F236" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85971,7 +87387,13 @@
       <c r="C237" t="n">
         <v>0.4</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="F237" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85985,7 +87407,13 @@
       <c r="C238" t="n">
         <v>0.6</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" t="n">
+        <v>0.309333333333333</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.309333333333333</v>
+      </c>
+      <c r="F238" t="s">
         <v>27</v>
       </c>
     </row>
@@ -85999,7 +87427,13 @@
       <c r="C239" t="n">
         <v>0.4</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="F239" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86013,7 +87447,13 @@
       <c r="C240" t="n">
         <v>0.2</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F240" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86027,7 +87467,13 @@
       <c r="C241" t="n">
         <v>0.6</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="F241" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86041,7 +87487,13 @@
       <c r="C242" t="n">
         <v>0.0</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F242" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86055,7 +87507,13 @@
       <c r="C243" t="n">
         <v>0.0</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F243" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86069,7 +87527,13 @@
       <c r="C244" t="n">
         <v>0.3</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="F244" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86083,7 +87547,13 @@
       <c r="C245" t="n">
         <v>0.4</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="F245" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86097,7 +87567,13 @@
       <c r="C246" t="n">
         <v>0.6</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F246" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86111,7 +87587,13 @@
       <c r="C247" t="n">
         <v>0.2</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F247" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86125,7 +87607,13 @@
       <c r="C248" t="n">
         <v>0.1</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F248" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86139,7 +87627,13 @@
       <c r="C249" t="n">
         <v>0.2</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F249" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86153,7 +87647,13 @@
       <c r="C250" t="n">
         <v>0.5</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" t="n">
+        <v>0.309333333333333</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.309333333333333</v>
+      </c>
+      <c r="F250" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86167,7 +87667,13 @@
       <c r="C251" t="n">
         <v>0.4</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="F251" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86181,7 +87687,13 @@
       <c r="C252" t="n">
         <v>0.6</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="F252" t="s">
         <v>27</v>
       </c>
     </row>
@@ -86195,7 +87707,13 @@
       <c r="C253" t="n">
         <v>0.4</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F253" t="s">
         <v>27</v>
       </c>
     </row>
